--- a/その他/44_開発体験シート.xlsx
+++ b/その他/44_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F48D438-572B-4320-89D2-2986BAE6CA92}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A084EAC-1AE6-428C-AF17-2069F90C3CCD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="73">
   <si>
     <t>体験項目</t>
     <rPh sb="0" eb="2">
@@ -539,6 +539,212 @@
   </si>
   <si>
     <t>●</t>
+  </si>
+  <si>
+    <t>三点見積もりが有効</t>
+    <rPh sb="0" eb="2">
+      <t>サンテン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題が解決できずに時間がかかってしまった</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファシリテーターで説明してしまった</t>
+    <rPh sb="9" eb="11">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出席者を書く順番も目上の人からということを知った</t>
+    <rPh sb="0" eb="3">
+      <t>シュッセキシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>メウエ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある程度のアジェンダがあったほうがスムーズに進めたかもしれない</t>
+    <rPh sb="2" eb="4">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リカバリ案だけでカバーできるとは限らない</t>
+    <rPh sb="4" eb="5">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装して設計を直すということが多々あった</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分析の段階で引数などを決めておくと設計が楽になる</t>
+    <rPh sb="0" eb="2">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ラク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計がしっかりしていれば実装が楽になる</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト手順や予想結果は書いたら変更しない（結果から書き直すこと）</t>
+    <rPh sb="3" eb="5">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨソウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニットテストの段階でエラーや例外のテストをしておくと楽になる</t>
+    <rPh sb="8" eb="10">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ラク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実現できることしか書けない</t>
+    <rPh sb="0" eb="2">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工数の数え方が難しい</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カゾ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ムズカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>includeなどユースケースにも色々な表記方法があることを知った</t>
+    <rPh sb="17" eb="19">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ヒョウキホウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1735,7 +1941,7 @@
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1790,12 +1996,16 @@
       <c r="F9" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="H9" s="51" t="str">
         <f>IF(COUNTIF(E9:G9,"*●*"),"●",IF(COUNTIF(E9:G9,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="67"/>
@@ -1811,7 +2021,9 @@
       <c r="F10" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="39"/>
+      <c r="G10" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H10" s="39" t="str">
         <f t="shared" ref="H10:H37" si="0">IF(COUNTIF(E10:G10,"*●*"),"●",IF(COUNTIF(E10:G10,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -1832,12 +2044,16 @@
       <c r="F11" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="H11" s="42" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="62" t="s">
@@ -1855,12 +2071,16 @@
       <c r="F12" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="42"/>
+      <c r="G12" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="H12" s="51" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="69"/>
@@ -1876,7 +2096,9 @@
       <c r="F13" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="39"/>
+      <c r="G13" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H13" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -1918,12 +2140,16 @@
       <c r="F15" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="42"/>
+      <c r="G15" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="H15" s="51" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="16" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="71"/>
@@ -1939,7 +2165,9 @@
       <c r="F16" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H16" s="39" t="str">
         <f>IF(COUNTIF(E16:G16,"*●*"),"●",IF(COUNTIF(E16:G16,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -1981,12 +2209,16 @@
       <c r="F18" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="38"/>
+      <c r="G18" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="H18" s="51" t="str">
         <f>IF(COUNTIF(E18:G18,"*●*"),"●",IF(COUNTIF(E18:G18,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="61"/>
@@ -2000,7 +2232,9 @@
       <c r="F19" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="H19" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2023,12 +2257,16 @@
       <c r="F20" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="42"/>
+      <c r="G20" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="H20" s="51" t="str">
         <f>IF(COUNTIF(E20:G20,"*●*"),"●",IF(COUNTIF(E20:G20,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="21" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="60"/>
@@ -2042,7 +2280,9 @@
       <c r="F21" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="39"/>
+      <c r="G21" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H21" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2063,7 +2303,9 @@
       <c r="F22" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="39"/>
+      <c r="G22" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H22" s="53" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2082,12 +2324,16 @@
       <c r="F23" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="39"/>
+      <c r="G23" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H23" s="39" t="str">
         <f>IF(COUNTIF(E23:G23,"*●*"),"●",IF(COUNTIF(E23:G23,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
-      <c r="I23" s="9"/>
+      <c r="I23" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="60"/>
@@ -2103,12 +2349,16 @@
       <c r="F24" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="39"/>
+      <c r="G24" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H24" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I24" s="9"/>
+      <c r="I24" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="25" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="61"/>
@@ -2122,7 +2372,9 @@
       <c r="F25" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="40"/>
+      <c r="G25" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="H25" s="42" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2145,12 +2397,16 @@
       <c r="F26" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="42"/>
+      <c r="G26" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="H26" s="51" t="str">
         <f>IF(COUNTIF(E26:G26,"*●*"),"●",IF(COUNTIF(E26:G26,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
-      <c r="I26" s="9"/>
+      <c r="I26" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="27" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="60"/>
@@ -2164,12 +2420,16 @@
       <c r="F27" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="39"/>
+      <c r="G27" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H27" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I27" s="5"/>
+      <c r="I27" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="28" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="61"/>
@@ -2183,12 +2443,16 @@
       <c r="F28" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="G28" s="40"/>
+      <c r="G28" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="H28" s="42" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I28" s="13"/>
+      <c r="I28" s="13" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="29" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="54" t="s">
@@ -2206,12 +2470,16 @@
       <c r="F29" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="42"/>
+      <c r="G29" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="H29" s="51" t="str">
         <f>IF(COUNTIF(E29:G29,"*●*"),"●",IF(COUNTIF(E29:G29,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
-      <c r="I29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="30" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="55"/>
@@ -2225,12 +2493,16 @@
       <c r="F30" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="39"/>
+      <c r="G30" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H30" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I30" s="9"/>
+      <c r="I30" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="31" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B31" s="55"/>
@@ -2244,7 +2516,9 @@
       <c r="F31" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="39"/>
+      <c r="G31" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H31" s="53" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2265,7 +2539,9 @@
       <c r="F32" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="39"/>
+      <c r="G32" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H32" s="39" t="str">
         <f>IF(COUNTIF(E32:G32,"*●*"),"●",IF(COUNTIF(E32:G32,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2284,7 +2560,9 @@
       <c r="F33" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G33" s="39"/>
+      <c r="G33" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H33" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2303,12 +2581,16 @@
       <c r="F34" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="39"/>
+      <c r="G34" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H34" s="53" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I34" s="9"/>
+      <c r="I34" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="35" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B35" s="55"/>
@@ -2324,7 +2606,9 @@
       <c r="F35" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41" t="s">
+        <v>58</v>
+      </c>
       <c r="H35" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2343,7 +2627,9 @@
       <c r="F36" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="39"/>
+      <c r="G36" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H36" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2362,7 +2648,9 @@
       <c r="F37" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="G37" s="40"/>
+      <c r="G37" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="H37" s="42" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2579,18 +2867,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2612,18 +2900,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>